--- a/docs/Test Plan.xlsx
+++ b/docs/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erclidesnuva/Documents/QA/qa-lab-python/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E85635-F9B4-9F49-9627-124339D23BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2136321F-0D9D-6243-8FED-BFAD65FB23FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14680" xr2:uid="{8D1D08AD-23EA-4146-BB5B-FDCA4ECAF87D}"/>
   </bookViews>
@@ -666,13 +666,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H12" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
